--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3202,28 +3202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3198.316088564622</v>
+        <v>3501.69191710786</v>
       </c>
       <c r="AB2" t="n">
-        <v>4376.077172121873</v>
+        <v>4791.169364731714</v>
       </c>
       <c r="AC2" t="n">
-        <v>3958.430508677282</v>
+        <v>4333.906885009975</v>
       </c>
       <c r="AD2" t="n">
-        <v>3198316.088564622</v>
+        <v>3501691.91710786</v>
       </c>
       <c r="AE2" t="n">
-        <v>4376077.172121873</v>
+        <v>4791169.364731714</v>
       </c>
       <c r="AF2" t="n">
         <v>2.631894936386141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.6375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3958430.508677281</v>
+        <v>4333906.885009975</v>
       </c>
     </row>
     <row r="3">
@@ -3308,28 +3308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1146.127231764032</v>
+        <v>1312.463762522392</v>
       </c>
       <c r="AB3" t="n">
-        <v>1568.181842064417</v>
+        <v>1795.770821697835</v>
       </c>
       <c r="AC3" t="n">
-        <v>1418.516768014827</v>
+        <v>1624.384974855171</v>
       </c>
       <c r="AD3" t="n">
-        <v>1146127.231764032</v>
+        <v>1312463.762522392</v>
       </c>
       <c r="AE3" t="n">
-        <v>1568181.842064417</v>
+        <v>1795770.821697835</v>
       </c>
       <c r="AF3" t="n">
         <v>4.953778489825983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.68333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1418516.768014827</v>
+        <v>1624384.974855171</v>
       </c>
     </row>
     <row r="4">
@@ -3414,28 +3414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>897.7505950273027</v>
+        <v>1024.968217152908</v>
       </c>
       <c r="AB4" t="n">
-        <v>1228.34197007736</v>
+        <v>1402.406733114994</v>
       </c>
       <c r="AC4" t="n">
-        <v>1111.110736441959</v>
+        <v>1268.563002796711</v>
       </c>
       <c r="AD4" t="n">
-        <v>897750.5950273026</v>
+        <v>1024968.217152908</v>
       </c>
       <c r="AE4" t="n">
-        <v>1228341.97007736</v>
+        <v>1402406.733114994</v>
       </c>
       <c r="AF4" t="n">
         <v>5.802825460859955e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1111110.736441959</v>
+        <v>1268563.002796711</v>
       </c>
     </row>
     <row r="5">
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>791.0546689847212</v>
+        <v>918.2039602727646</v>
       </c>
       <c r="AB5" t="n">
-        <v>1082.355896973854</v>
+        <v>1256.327166744992</v>
       </c>
       <c r="AC5" t="n">
-        <v>979.0573692627103</v>
+        <v>1136.425065217102</v>
       </c>
       <c r="AD5" t="n">
-        <v>791054.6689847212</v>
+        <v>918203.9602727646</v>
       </c>
       <c r="AE5" t="n">
-        <v>1082355.896973853</v>
+        <v>1256327.166744992</v>
       </c>
       <c r="AF5" t="n">
         <v>6.248819965608945e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.11666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>979057.3692627102</v>
+        <v>1136425.065217102</v>
       </c>
     </row>
     <row r="6">
@@ -3626,28 +3626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>715.2607371596106</v>
+        <v>842.4431828365775</v>
       </c>
       <c r="AB6" t="n">
-        <v>978.6512956584578</v>
+        <v>1152.66792872719</v>
       </c>
       <c r="AC6" t="n">
-        <v>885.2501895465341</v>
+        <v>1042.658919389065</v>
       </c>
       <c r="AD6" t="n">
-        <v>715260.7371596106</v>
+        <v>842443.1828365775</v>
       </c>
       <c r="AE6" t="n">
-        <v>978651.2956584578</v>
+        <v>1152667.92872719</v>
       </c>
       <c r="AF6" t="n">
         <v>6.547907496665278e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>885250.1895465341</v>
+        <v>1042658.919389065</v>
       </c>
     </row>
     <row r="7">
@@ -3732,28 +3732,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>676.6728035411998</v>
+        <v>794.0335735588948</v>
       </c>
       <c r="AB7" t="n">
-        <v>925.8535825022648</v>
+        <v>1086.431765632232</v>
       </c>
       <c r="AC7" t="n">
-        <v>837.4914160319123</v>
+        <v>982.744242736851</v>
       </c>
       <c r="AD7" t="n">
-        <v>676672.8035411998</v>
+        <v>794033.5735588948</v>
       </c>
       <c r="AE7" t="n">
-        <v>925853.5825022648</v>
+        <v>1086431.765632232</v>
       </c>
       <c r="AF7" t="n">
         <v>6.730599502411274e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.32083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>837491.4160319123</v>
+        <v>982744.242736851</v>
       </c>
     </row>
     <row r="8">
@@ -3838,28 +3838,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>663.4624925199902</v>
+        <v>780.8232625376852</v>
       </c>
       <c r="AB8" t="n">
-        <v>907.7786521652555</v>
+        <v>1068.356835295223</v>
       </c>
       <c r="AC8" t="n">
-        <v>821.141531677943</v>
+        <v>966.3943583828816</v>
       </c>
       <c r="AD8" t="n">
-        <v>663462.4925199902</v>
+        <v>780823.2625376852</v>
       </c>
       <c r="AE8" t="n">
-        <v>907778.6521652555</v>
+        <v>1068356.835295223</v>
       </c>
       <c r="AF8" t="n">
         <v>6.791245714627987e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.1125</v>
       </c>
       <c r="AH8" t="n">
-        <v>821141.5316779431</v>
+        <v>966394.3583828816</v>
       </c>
     </row>
     <row r="9">
@@ -3944,28 +3944,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>664.680608569077</v>
+        <v>782.0413785867719</v>
       </c>
       <c r="AB9" t="n">
-        <v>909.4453322831034</v>
+        <v>1070.023515413071</v>
       </c>
       <c r="AC9" t="n">
-        <v>822.6491461845437</v>
+        <v>967.9019728894824</v>
       </c>
       <c r="AD9" t="n">
-        <v>664680.608569077</v>
+        <v>782041.3785867719</v>
       </c>
       <c r="AE9" t="n">
-        <v>909445.3322831034</v>
+        <v>1070023.515413071</v>
       </c>
       <c r="AF9" t="n">
         <v>6.791999083723846e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.10833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>822649.1461845437</v>
+        <v>967901.9728894824</v>
       </c>
     </row>
     <row r="10">
@@ -4050,28 +4050,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>664.6925699936585</v>
+        <v>772.3331495785667</v>
       </c>
       <c r="AB10" t="n">
-        <v>909.4616984319165</v>
+        <v>1056.740288187208</v>
       </c>
       <c r="AC10" t="n">
-        <v>822.6639503710843</v>
+        <v>955.8864782269296</v>
       </c>
       <c r="AD10" t="n">
-        <v>664692.5699936585</v>
+        <v>772333.1495785667</v>
       </c>
       <c r="AE10" t="n">
-        <v>909461.6984319165</v>
+        <v>1056740.288187208</v>
       </c>
       <c r="AF10" t="n">
         <v>6.804429673805533e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.06666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>822663.9503710843</v>
+        <v>955886.4782269297</v>
       </c>
     </row>
   </sheetData>
@@ -4347,28 +4347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1990.113709429329</v>
+        <v>2222.412723613145</v>
       </c>
       <c r="AB2" t="n">
-        <v>2722.961374861622</v>
+        <v>3040.803134377311</v>
       </c>
       <c r="AC2" t="n">
-        <v>2463.085762945121</v>
+        <v>2750.593151026228</v>
       </c>
       <c r="AD2" t="n">
-        <v>1990113.709429329</v>
+        <v>2222412.723613145</v>
       </c>
       <c r="AE2" t="n">
-        <v>2722961.374861622</v>
+        <v>3040803.134377311</v>
       </c>
       <c r="AF2" t="n">
         <v>3.67854801553344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.68333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2463085.762945121</v>
+        <v>2750593.151026228</v>
       </c>
     </row>
     <row r="3">
@@ -4453,28 +4453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>917.3511798843861</v>
+        <v>1062.525251717227</v>
       </c>
       <c r="AB3" t="n">
-        <v>1255.160354995597</v>
+        <v>1453.793924705323</v>
       </c>
       <c r="AC3" t="n">
-        <v>1135.369612343439</v>
+        <v>1315.045872944035</v>
       </c>
       <c r="AD3" t="n">
-        <v>917351.179884386</v>
+        <v>1062525.251717227</v>
       </c>
       <c r="AE3" t="n">
-        <v>1255160.354995597</v>
+        <v>1453793.924705323</v>
       </c>
       <c r="AF3" t="n">
         <v>5.938433591911015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.92083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1135369.612343439</v>
+        <v>1315045.872944035</v>
       </c>
     </row>
     <row r="4">
@@ -4559,28 +4559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>744.0844602198634</v>
+        <v>869.8301139447836</v>
       </c>
       <c r="AB4" t="n">
-        <v>1018.089185162411</v>
+        <v>1190.139936095566</v>
       </c>
       <c r="AC4" t="n">
-        <v>920.9241822276558</v>
+        <v>1076.554650966496</v>
       </c>
       <c r="AD4" t="n">
-        <v>744084.4602198635</v>
+        <v>869830.1139447837</v>
       </c>
       <c r="AE4" t="n">
-        <v>1018089.185162411</v>
+        <v>1190139.936095566</v>
       </c>
       <c r="AF4" t="n">
         <v>6.75039320990551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.44166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>920924.1822276558</v>
+        <v>1076554.650966496</v>
       </c>
     </row>
     <row r="5">
@@ -4665,28 +4665,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>653.6745894194627</v>
+        <v>779.4533975333067</v>
       </c>
       <c r="AB5" t="n">
-        <v>894.3864113313048</v>
+        <v>1066.482525562053</v>
       </c>
       <c r="AC5" t="n">
-        <v>809.0274275130565</v>
+        <v>964.6989301400357</v>
       </c>
       <c r="AD5" t="n">
-        <v>653674.5894194627</v>
+        <v>779453.3975333066</v>
       </c>
       <c r="AE5" t="n">
-        <v>894386.4113313048</v>
+        <v>1066482.525562053</v>
       </c>
       <c r="AF5" t="n">
         <v>7.190170322798976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.88333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>809027.4275130566</v>
+        <v>964698.9301400357</v>
       </c>
     </row>
     <row r="6">
@@ -4771,28 +4771,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>625.7226129227154</v>
+        <v>741.7877174975275</v>
       </c>
       <c r="AB6" t="n">
-        <v>856.1412839342837</v>
+        <v>1014.946680444574</v>
       </c>
       <c r="AC6" t="n">
-        <v>774.4323613974337</v>
+        <v>918.0815937495553</v>
       </c>
       <c r="AD6" t="n">
-        <v>625722.6129227154</v>
+        <v>741787.7174975275</v>
       </c>
       <c r="AE6" t="n">
-        <v>856141.2839342837</v>
+        <v>1014946.680444574</v>
       </c>
       <c r="AF6" t="n">
         <v>7.351737921912602e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.35833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>774432.3613974338</v>
+        <v>918081.5937495553</v>
       </c>
     </row>
     <row r="7">
@@ -4877,28 +4877,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>626.2918034745167</v>
+        <v>742.3569080493287</v>
       </c>
       <c r="AB7" t="n">
-        <v>856.9200755581729</v>
+        <v>1015.725472068463</v>
       </c>
       <c r="AC7" t="n">
-        <v>775.1368262417801</v>
+        <v>918.7860585939015</v>
       </c>
       <c r="AD7" t="n">
-        <v>626291.8034745166</v>
+        <v>742356.9080493287</v>
       </c>
       <c r="AE7" t="n">
-        <v>856920.0755581729</v>
+        <v>1015725.472068463</v>
       </c>
       <c r="AF7" t="n">
         <v>7.363690626949069e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.32083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>775136.8262417801</v>
+        <v>918786.0585939016</v>
       </c>
     </row>
   </sheetData>
@@ -5174,28 +5174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>726.0628728368984</v>
+        <v>866.2936137063109</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.4312542487154</v>
+        <v>1185.301140449908</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.6195696327397</v>
+        <v>1072.177663185967</v>
       </c>
       <c r="AD2" t="n">
-        <v>726062.8728368983</v>
+        <v>866293.6137063109</v>
       </c>
       <c r="AE2" t="n">
-        <v>993431.2542487154</v>
+        <v>1185301.140449908</v>
       </c>
       <c r="AF2" t="n">
         <v>8.18924082147219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>898619.5696327398</v>
+        <v>1072177.663185967</v>
       </c>
     </row>
     <row r="3">
@@ -5280,28 +5280,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.3145567086569</v>
+        <v>682.8343340986164</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.0153399393105</v>
+        <v>934.2840604384659</v>
       </c>
       <c r="AC3" t="n">
-        <v>694.7170338118016</v>
+        <v>845.1173009861324</v>
       </c>
       <c r="AD3" t="n">
-        <v>561314.5567086569</v>
+        <v>682834.3340986164</v>
       </c>
       <c r="AE3" t="n">
-        <v>768015.3399393104</v>
+        <v>934284.0604384659</v>
       </c>
       <c r="AF3" t="n">
         <v>9.511830540373811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>694717.0338118016</v>
+        <v>845117.3009861324</v>
       </c>
     </row>
     <row r="4">
@@ -5386,28 +5386,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>563.5745525547961</v>
+        <v>685.0943299447556</v>
       </c>
       <c r="AB4" t="n">
-        <v>771.107565959978</v>
+        <v>937.3762864591334</v>
       </c>
       <c r="AC4" t="n">
-        <v>697.5141421210232</v>
+        <v>847.9144092953539</v>
       </c>
       <c r="AD4" t="n">
-        <v>563574.5525547961</v>
+        <v>685094.3299447556</v>
       </c>
       <c r="AE4" t="n">
-        <v>771107.565959978</v>
+        <v>937376.2864591335</v>
       </c>
       <c r="AF4" t="n">
         <v>9.512981118641669e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.19583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>697514.1421210231</v>
+        <v>847914.4092953539</v>
       </c>
     </row>
     <row r="5">
@@ -5492,28 +5492,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>565.1583004028339</v>
+        <v>686.6780777927933</v>
       </c>
       <c r="AB5" t="n">
-        <v>773.2745196356872</v>
+        <v>939.5432401348427</v>
       </c>
       <c r="AC5" t="n">
-        <v>699.4742847792611</v>
+        <v>849.874551953592</v>
       </c>
       <c r="AD5" t="n">
-        <v>565158.3004028338</v>
+        <v>686678.0777927933</v>
       </c>
       <c r="AE5" t="n">
-        <v>773274.5196356871</v>
+        <v>939543.2401348427</v>
       </c>
       <c r="AF5" t="n">
         <v>9.525062190454166e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>699474.2847792611</v>
+        <v>849874.551953592</v>
       </c>
     </row>
   </sheetData>
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1041.190232245197</v>
+        <v>1202.326604621634</v>
       </c>
       <c r="AB2" t="n">
-        <v>1424.602409829062</v>
+        <v>1645.076303349535</v>
       </c>
       <c r="AC2" t="n">
-        <v>1288.640355277015</v>
+        <v>1488.072529836948</v>
       </c>
       <c r="AD2" t="n">
-        <v>1041190.232245197</v>
+        <v>1202326.604621634</v>
       </c>
       <c r="AE2" t="n">
-        <v>1424602.409829061</v>
+        <v>1645076.303349535</v>
       </c>
       <c r="AF2" t="n">
         <v>6.085014134724195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.1125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1288640.355277015</v>
+        <v>1488072.529836948</v>
       </c>
     </row>
     <row r="3">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.3471746476253</v>
+        <v>749.5191010913655</v>
       </c>
       <c r="AB3" t="n">
-        <v>856.995836840024</v>
+        <v>1025.525100562234</v>
       </c>
       <c r="AC3" t="n">
-        <v>775.2053569732227</v>
+        <v>927.6504242980925</v>
       </c>
       <c r="AD3" t="n">
-        <v>626347.1746476253</v>
+        <v>749519.1010913656</v>
       </c>
       <c r="AE3" t="n">
-        <v>856995.836840024</v>
+        <v>1025525.100562234</v>
       </c>
       <c r="AF3" t="n">
         <v>8.243216298767524e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.18333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>775205.3569732227</v>
+        <v>927650.4242980925</v>
       </c>
     </row>
     <row r="4">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>578.6076539225177</v>
+        <v>692.33117565656</v>
       </c>
       <c r="AB4" t="n">
-        <v>791.6765184649202</v>
+        <v>947.2780580291243</v>
       </c>
       <c r="AC4" t="n">
-        <v>716.1200226675995</v>
+        <v>856.8711696839287</v>
       </c>
       <c r="AD4" t="n">
-        <v>578607.6539225177</v>
+        <v>692331.17565656</v>
       </c>
       <c r="AE4" t="n">
-        <v>791676.5184649201</v>
+        <v>947278.0580291243</v>
       </c>
       <c r="AF4" t="n">
         <v>8.589465260912056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>716120.0226675995</v>
+        <v>856871.1696839286</v>
       </c>
     </row>
     <row r="5">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>580.2651175837783</v>
+        <v>693.9886393178206</v>
       </c>
       <c r="AB5" t="n">
-        <v>793.9443333683929</v>
+        <v>949.5458729325971</v>
       </c>
       <c r="AC5" t="n">
-        <v>718.171400499583</v>
+        <v>858.9225475159122</v>
       </c>
       <c r="AD5" t="n">
-        <v>580265.1175837783</v>
+        <v>693988.6393178205</v>
       </c>
       <c r="AE5" t="n">
-        <v>793944.3333683929</v>
+        <v>949545.8729325972</v>
       </c>
       <c r="AF5" t="n">
         <v>8.59046166080312e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.1625</v>
       </c>
       <c r="AH5" t="n">
-        <v>718171.400499583</v>
+        <v>858922.5475159122</v>
       </c>
     </row>
     <row r="6">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>581.4030657074143</v>
+        <v>695.1265874414565</v>
       </c>
       <c r="AB6" t="n">
-        <v>795.5013241938797</v>
+        <v>951.1028637580839</v>
       </c>
       <c r="AC6" t="n">
-        <v>719.5797943059357</v>
+        <v>860.3309413222647</v>
       </c>
       <c r="AD6" t="n">
-        <v>581403.0657074143</v>
+        <v>695126.5874414565</v>
       </c>
       <c r="AE6" t="n">
-        <v>795501.3241938796</v>
+        <v>951102.8637580839</v>
       </c>
       <c r="AF6" t="n">
         <v>8.60241845949588e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.12916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>719579.7943059357</v>
+        <v>860330.9413222647</v>
       </c>
     </row>
   </sheetData>
@@ -6510,28 +6510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.4162961807419</v>
+        <v>687.8995354384417</v>
       </c>
       <c r="AB2" t="n">
-        <v>764.049812022787</v>
+        <v>941.2144923725268</v>
       </c>
       <c r="AC2" t="n">
-        <v>691.1299703139777</v>
+        <v>851.3863022233289</v>
       </c>
       <c r="AD2" t="n">
-        <v>558416.296180742</v>
+        <v>687899.5354384417</v>
       </c>
       <c r="AE2" t="n">
-        <v>764049.8120227871</v>
+        <v>941214.4923725268</v>
       </c>
       <c r="AF2" t="n">
         <v>1.024679074962018e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.79583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>691129.9703139777</v>
+        <v>851386.302223329</v>
       </c>
     </row>
     <row r="3">
@@ -6616,28 +6616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>555.8101436524496</v>
+        <v>685.2933829101491</v>
       </c>
       <c r="AB3" t="n">
-        <v>760.4839591582421</v>
+        <v>937.6486395079819</v>
       </c>
       <c r="AC3" t="n">
-        <v>687.904437442119</v>
+        <v>848.1607693514703</v>
       </c>
       <c r="AD3" t="n">
-        <v>555810.1436524496</v>
+        <v>685293.3829101492</v>
       </c>
       <c r="AE3" t="n">
-        <v>760483.9591582421</v>
+        <v>937648.6395079819</v>
       </c>
       <c r="AF3" t="n">
         <v>1.032586057728107e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>687904.437442119</v>
+        <v>848160.7693514703</v>
       </c>
     </row>
     <row r="4">
@@ -6722,28 +6722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>557.8083340123499</v>
+        <v>687.2915732700495</v>
       </c>
       <c r="AB4" t="n">
-        <v>763.217971362595</v>
+        <v>940.3826517123347</v>
       </c>
       <c r="AC4" t="n">
-        <v>690.3775193588988</v>
+        <v>850.6338512682498</v>
       </c>
       <c r="AD4" t="n">
-        <v>557808.3340123498</v>
+        <v>687291.5732700495</v>
       </c>
       <c r="AE4" t="n">
-        <v>763217.971362595</v>
+        <v>940382.6517123347</v>
       </c>
       <c r="AF4" t="n">
         <v>1.033837996666071e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.55833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>690377.5193588987</v>
+        <v>850633.8512682498</v>
       </c>
     </row>
   </sheetData>
@@ -7019,28 +7019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2227.064184336692</v>
+        <v>2469.685916580876</v>
       </c>
       <c r="AB2" t="n">
-        <v>3047.167468147231</v>
+        <v>3379.133225919139</v>
       </c>
       <c r="AC2" t="n">
-        <v>2756.350081713546</v>
+        <v>3056.633493480559</v>
       </c>
       <c r="AD2" t="n">
-        <v>2227064.184336692</v>
+        <v>2469685.916580876</v>
       </c>
       <c r="AE2" t="n">
-        <v>3047167.468147231</v>
+        <v>3379133.22591914</v>
       </c>
       <c r="AF2" t="n">
         <v>3.392602983752824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2756350.081713546</v>
+        <v>3056633.493480559</v>
       </c>
     </row>
     <row r="3">
@@ -7125,28 +7125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>974.5171749893377</v>
+        <v>1120.151105471739</v>
       </c>
       <c r="AB3" t="n">
-        <v>1333.377391483903</v>
+        <v>1532.640160085489</v>
       </c>
       <c r="AC3" t="n">
-        <v>1206.121724647601</v>
+        <v>1386.367134280904</v>
       </c>
       <c r="AD3" t="n">
-        <v>974517.1749893377</v>
+        <v>1120151.105471739</v>
       </c>
       <c r="AE3" t="n">
-        <v>1333377.391483903</v>
+        <v>1532640.16008549</v>
       </c>
       <c r="AF3" t="n">
         <v>5.663052757704773e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.59166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1206121.724647601</v>
+        <v>1386367.134280904</v>
       </c>
     </row>
     <row r="4">
@@ -7231,28 +7231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>776.9670479884525</v>
+        <v>912.8237189344654</v>
       </c>
       <c r="AB4" t="n">
-        <v>1063.080592424783</v>
+        <v>1248.965683186435</v>
       </c>
       <c r="AC4" t="n">
-        <v>961.6216727267437</v>
+        <v>1129.766151317467</v>
       </c>
       <c r="AD4" t="n">
-        <v>776967.0479884525</v>
+        <v>912823.7189344654</v>
       </c>
       <c r="AE4" t="n">
-        <v>1063080.592424783</v>
+        <v>1248965.683186435</v>
       </c>
       <c r="AF4" t="n">
         <v>6.488780549719538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.82916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>961621.6727267436</v>
+        <v>1129766.151317467</v>
       </c>
     </row>
     <row r="5">
@@ -7337,28 +7337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>693.6862410544458</v>
+        <v>810.1260656326625</v>
       </c>
       <c r="AB5" t="n">
-        <v>949.1321182877778</v>
+        <v>1108.450223238206</v>
       </c>
       <c r="AC5" t="n">
-        <v>858.548281033686</v>
+        <v>1002.66128965201</v>
       </c>
       <c r="AD5" t="n">
-        <v>693686.2410544457</v>
+        <v>810126.0656326625</v>
       </c>
       <c r="AE5" t="n">
-        <v>949132.1182877778</v>
+        <v>1108450.223238206</v>
       </c>
       <c r="AF5" t="n">
         <v>6.924369053739018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>858548.2810336859</v>
+        <v>1002661.28965201</v>
       </c>
     </row>
     <row r="6">
@@ -7443,28 +7443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>638.4493435018663</v>
+        <v>754.8550026613024</v>
       </c>
       <c r="AB6" t="n">
-        <v>873.5545581764051</v>
+        <v>1032.825916493585</v>
       </c>
       <c r="AC6" t="n">
-        <v>790.183737185571</v>
+        <v>934.2544606037147</v>
       </c>
       <c r="AD6" t="n">
-        <v>638449.3435018663</v>
+        <v>754855.0026613023</v>
       </c>
       <c r="AE6" t="n">
-        <v>873554.558176405</v>
+        <v>1032825.916493585</v>
       </c>
       <c r="AF6" t="n">
         <v>7.175747460952475e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.35416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>790183.737185571</v>
+        <v>934254.4606037147</v>
       </c>
     </row>
     <row r="7">
@@ -7549,28 +7549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>635.2537808506246</v>
+        <v>751.6594400100605</v>
       </c>
       <c r="AB7" t="n">
-        <v>869.1822483787015</v>
+        <v>1028.453606695881</v>
       </c>
       <c r="AC7" t="n">
-        <v>786.2287144983849</v>
+        <v>930.2994379165286</v>
       </c>
       <c r="AD7" t="n">
-        <v>635253.7808506245</v>
+        <v>751659.4400100606</v>
       </c>
       <c r="AE7" t="n">
-        <v>869182.2483787015</v>
+        <v>1028453.606695882</v>
       </c>
       <c r="AF7" t="n">
         <v>7.204304048011924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.2625</v>
       </c>
       <c r="AH7" t="n">
-        <v>786228.7144983849</v>
+        <v>930299.4379165287</v>
       </c>
     </row>
   </sheetData>
@@ -7846,28 +7846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.4120799524196</v>
+        <v>695.1865245617854</v>
       </c>
       <c r="AB2" t="n">
-        <v>762.6757990763031</v>
+        <v>951.1848723703571</v>
       </c>
       <c r="AC2" t="n">
-        <v>689.8870912346667</v>
+        <v>860.4051231476824</v>
       </c>
       <c r="AD2" t="n">
-        <v>557412.0799524196</v>
+        <v>695186.5245617854</v>
       </c>
       <c r="AE2" t="n">
-        <v>762675.799076303</v>
+        <v>951184.872370357</v>
       </c>
       <c r="AF2" t="n">
         <v>1.077929076209712e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.86666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>689887.0912346668</v>
+        <v>860405.1231476824</v>
       </c>
     </row>
     <row r="3">
@@ -7952,28 +7952,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>559.2277950773525</v>
+        <v>697.0022396867184</v>
       </c>
       <c r="AB3" t="n">
-        <v>765.160140613934</v>
+        <v>953.669213907988</v>
       </c>
       <c r="AC3" t="n">
-        <v>692.1343307027416</v>
+        <v>862.6523626157572</v>
       </c>
       <c r="AD3" t="n">
-        <v>559227.7950773526</v>
+        <v>697002.2396867184</v>
       </c>
       <c r="AE3" t="n">
-        <v>765160.140613934</v>
+        <v>953669.213907988</v>
       </c>
       <c r="AF3" t="n">
         <v>1.080380389739986e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.80416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>692134.3307027416</v>
+        <v>862652.3626157572</v>
       </c>
     </row>
   </sheetData>
@@ -8249,28 +8249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1437.133166060469</v>
+        <v>1638.422154678361</v>
       </c>
       <c r="AB2" t="n">
-        <v>1966.348999644543</v>
+        <v>2241.761474114985</v>
       </c>
       <c r="AC2" t="n">
-        <v>1778.683410906621</v>
+        <v>2027.81090535744</v>
       </c>
       <c r="AD2" t="n">
-        <v>1437133.166060469</v>
+        <v>1638422.154678361</v>
       </c>
       <c r="AE2" t="n">
-        <v>1966348.999644543</v>
+        <v>2241761.474114985</v>
       </c>
       <c r="AF2" t="n">
         <v>4.697267503055899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.75416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1778683.410906621</v>
+        <v>2027810.90535744</v>
       </c>
     </row>
     <row r="3">
@@ -8355,28 +8355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>774.7926426353526</v>
+        <v>899.4092574331388</v>
       </c>
       <c r="AB3" t="n">
-        <v>1060.105475092678</v>
+        <v>1230.611425156046</v>
       </c>
       <c r="AC3" t="n">
-        <v>958.9304964172113</v>
+        <v>1113.163597913135</v>
       </c>
       <c r="AD3" t="n">
-        <v>774792.6426353527</v>
+        <v>899409.2574331388</v>
       </c>
       <c r="AE3" t="n">
-        <v>1060105.475092678</v>
+        <v>1230611.425156046</v>
       </c>
       <c r="AF3" t="n">
         <v>6.908089046093276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.03333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>958930.4964172114</v>
+        <v>1113163.597913135</v>
       </c>
     </row>
     <row r="4">
@@ -8461,28 +8461,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>632.596611077191</v>
+        <v>747.5906166726033</v>
       </c>
       <c r="AB4" t="n">
-        <v>865.5465914686331</v>
+        <v>1022.886463101756</v>
       </c>
       <c r="AC4" t="n">
-        <v>782.9400395811368</v>
+        <v>925.2636146934911</v>
       </c>
       <c r="AD4" t="n">
-        <v>632596.6110771911</v>
+        <v>747590.6166726033</v>
       </c>
       <c r="AE4" t="n">
-        <v>865546.5914686332</v>
+        <v>1022886.463101756</v>
       </c>
       <c r="AF4" t="n">
         <v>7.709864789148995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.22083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>782940.0395811368</v>
+        <v>925263.6146934911</v>
       </c>
     </row>
     <row r="5">
@@ -8567,28 +8567,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>596.7833111582144</v>
+        <v>711.844636561331</v>
       </c>
       <c r="AB5" t="n">
-        <v>816.5452545482054</v>
+        <v>973.9772361121696</v>
       </c>
       <c r="AC5" t="n">
-        <v>738.6153214825864</v>
+        <v>881.0222156832599</v>
       </c>
       <c r="AD5" t="n">
-        <v>596783.3111582143</v>
+        <v>711844.636561331</v>
       </c>
       <c r="AE5" t="n">
-        <v>816545.2545482054</v>
+        <v>973977.2361121697</v>
       </c>
       <c r="AF5" t="n">
         <v>7.89764792852314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.64583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>738615.3214825864</v>
+        <v>881022.2156832599</v>
       </c>
     </row>
     <row r="6">
@@ -8673,28 +8673,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>598.709358221702</v>
+        <v>713.7706836248187</v>
       </c>
       <c r="AB6" t="n">
-        <v>819.1805571116686</v>
+        <v>976.6125386756329</v>
       </c>
       <c r="AC6" t="n">
-        <v>740.9991144680631</v>
+        <v>883.4060086687366</v>
       </c>
       <c r="AD6" t="n">
-        <v>598709.358221702</v>
+        <v>713770.6836248187</v>
       </c>
       <c r="AE6" t="n">
-        <v>819180.5571116686</v>
+        <v>976612.5386756329</v>
       </c>
       <c r="AF6" t="n">
         <v>7.898096098306849e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.64166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>740999.1144680631</v>
+        <v>883406.0086687366</v>
       </c>
     </row>
   </sheetData>
@@ -8970,28 +8970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1787.189199148598</v>
+        <v>1999.445868876353</v>
       </c>
       <c r="AB2" t="n">
-        <v>2445.311107497962</v>
+        <v>2735.730047122859</v>
       </c>
       <c r="AC2" t="n">
-        <v>2211.93404741405</v>
+        <v>2474.635811046689</v>
       </c>
       <c r="AD2" t="n">
-        <v>1787189.199148598</v>
+        <v>1999445.868876353</v>
       </c>
       <c r="AE2" t="n">
-        <v>2445311.107497962</v>
+        <v>2735730.047122858</v>
       </c>
       <c r="AF2" t="n">
         <v>3.990891922495336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2211934.04741405</v>
+        <v>2474635.811046689</v>
       </c>
     </row>
     <row r="3">
@@ -9076,28 +9076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>871.2632661788418</v>
+        <v>1006.311212439157</v>
       </c>
       <c r="AB3" t="n">
-        <v>1192.100838208419</v>
+        <v>1376.879396176683</v>
       </c>
       <c r="AC3" t="n">
-        <v>1078.328407333841</v>
+        <v>1245.471959067949</v>
       </c>
       <c r="AD3" t="n">
-        <v>871263.2661788418</v>
+        <v>1006311.212439157</v>
       </c>
       <c r="AE3" t="n">
-        <v>1192100.838208419</v>
+        <v>1376879.396176683</v>
       </c>
       <c r="AF3" t="n">
         <v>6.237196364773291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1078328.407333841</v>
+        <v>1245471.959067949</v>
       </c>
     </row>
     <row r="4">
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>710.1194371550047</v>
+        <v>825.8993679672406</v>
       </c>
       <c r="AB4" t="n">
-        <v>971.6167421740081</v>
+        <v>1130.031951361362</v>
       </c>
       <c r="AC4" t="n">
-        <v>878.8870039735823</v>
+        <v>1022.183287933238</v>
       </c>
       <c r="AD4" t="n">
-        <v>710119.4371550047</v>
+        <v>825899.3679672405</v>
       </c>
       <c r="AE4" t="n">
-        <v>971616.742174008</v>
+        <v>1130031.951361362</v>
       </c>
       <c r="AF4" t="n">
         <v>7.043920012875751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.025</v>
       </c>
       <c r="AH4" t="n">
-        <v>878887.0039735823</v>
+        <v>1022183.287933238</v>
       </c>
     </row>
     <row r="5">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>624.6736167940896</v>
+        <v>740.4867019952492</v>
       </c>
       <c r="AB5" t="n">
-        <v>854.7060011526548</v>
+        <v>1013.166573637603</v>
       </c>
       <c r="AC5" t="n">
-        <v>773.1340599900516</v>
+        <v>916.4713778378465</v>
       </c>
       <c r="AD5" t="n">
-        <v>624673.6167940897</v>
+        <v>740486.7019952491</v>
       </c>
       <c r="AE5" t="n">
-        <v>854706.0011526549</v>
+        <v>1013166.573637603</v>
       </c>
       <c r="AF5" t="n">
         <v>7.469068028787116e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>773134.0599900516</v>
+        <v>916471.3778378465</v>
       </c>
     </row>
     <row r="6">
@@ -9394,28 +9394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>616.6584393459309</v>
+        <v>732.3700393206051</v>
       </c>
       <c r="AB6" t="n">
-        <v>843.7392817634113</v>
+        <v>1002.06099768427</v>
       </c>
       <c r="AC6" t="n">
-        <v>763.21398890743</v>
+        <v>906.4257024667259</v>
       </c>
       <c r="AD6" t="n">
-        <v>616658.4393459309</v>
+        <v>732370.0393206051</v>
       </c>
       <c r="AE6" t="n">
-        <v>843739.2817634114</v>
+        <v>1002060.99768427</v>
       </c>
       <c r="AF6" t="n">
         <v>7.518562872430529e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.44583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>763213.98890743</v>
+        <v>906425.7024667258</v>
       </c>
     </row>
     <row r="7">
@@ -9500,28 +9500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>617.4309953705753</v>
+        <v>733.1425953452494</v>
       </c>
       <c r="AB7" t="n">
-        <v>844.796326999096</v>
+        <v>1003.118042919955</v>
       </c>
       <c r="AC7" t="n">
-        <v>764.1701512293932</v>
+        <v>907.381864788689</v>
       </c>
       <c r="AD7" t="n">
-        <v>617430.9953705752</v>
+        <v>733142.5953452494</v>
       </c>
       <c r="AE7" t="n">
-        <v>844796.326999096</v>
+        <v>1003118.042919955</v>
       </c>
       <c r="AF7" t="n">
         <v>7.530407792276816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.40833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>764170.1512293932</v>
+        <v>907381.864788689</v>
       </c>
     </row>
   </sheetData>
@@ -9797,28 +9797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2818.076963364411</v>
+        <v>3101.130846853214</v>
       </c>
       <c r="AB2" t="n">
-        <v>3855.817226056628</v>
+        <v>4243.10403690205</v>
       </c>
       <c r="AC2" t="n">
-        <v>3487.823441675104</v>
+        <v>3838.148142853876</v>
       </c>
       <c r="AD2" t="n">
-        <v>2818076.963364411</v>
+        <v>3101130.846853214</v>
       </c>
       <c r="AE2" t="n">
-        <v>3855817.226056628</v>
+        <v>4243104.03690205</v>
       </c>
       <c r="AF2" t="n">
         <v>2.869581970307407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.84166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3487823.441675104</v>
+        <v>3838148.142853877</v>
       </c>
     </row>
     <row r="3">
@@ -9903,28 +9903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1083.233391053682</v>
+        <v>1239.40458526324</v>
       </c>
       <c r="AB3" t="n">
-        <v>1482.127714524091</v>
+        <v>1695.80803222844</v>
       </c>
       <c r="AC3" t="n">
-        <v>1340.675525629223</v>
+        <v>1533.962493714079</v>
       </c>
       <c r="AD3" t="n">
-        <v>1083233.391053682</v>
+        <v>1239404.58526324</v>
       </c>
       <c r="AE3" t="n">
-        <v>1482127.714524091</v>
+        <v>1695808.03222844</v>
       </c>
       <c r="AF3" t="n">
         <v>5.17616903247624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1340675.525629223</v>
+        <v>1533962.493714079</v>
       </c>
     </row>
     <row r="4">
@@ -10009,28 +10009,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>855.39726055937</v>
+        <v>992.0427848153859</v>
       </c>
       <c r="AB4" t="n">
-        <v>1170.39226936109</v>
+        <v>1357.35670402324</v>
       </c>
       <c r="AC4" t="n">
-        <v>1058.691673829134</v>
+        <v>1227.81248525336</v>
       </c>
       <c r="AD4" t="n">
-        <v>855397.26055937</v>
+        <v>992042.7848153858</v>
       </c>
       <c r="AE4" t="n">
-        <v>1170392.26936109</v>
+        <v>1357356.70402324</v>
       </c>
       <c r="AF4" t="n">
         <v>6.006048138871763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.67916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1058691.673829134</v>
+        <v>1227812.48525336</v>
       </c>
     </row>
     <row r="5">
@@ -10115,28 +10115,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>751.5594136595125</v>
+        <v>878.442102938757</v>
       </c>
       <c r="AB5" t="n">
-        <v>1028.316746230211</v>
+        <v>1201.92323937126</v>
       </c>
       <c r="AC5" t="n">
-        <v>930.1756392216163</v>
+        <v>1087.213372315528</v>
       </c>
       <c r="AD5" t="n">
-        <v>751559.4136595125</v>
+        <v>878442.102938757</v>
       </c>
       <c r="AE5" t="n">
-        <v>1028316.746230211</v>
+        <v>1201923.23937126</v>
       </c>
       <c r="AF5" t="n">
         <v>6.462520103325648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.79583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>930175.6392216163</v>
+        <v>1087213.372315528</v>
       </c>
     </row>
     <row r="6">
@@ -10221,28 +10221,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>691.4542470948697</v>
+        <v>818.3027709553337</v>
       </c>
       <c r="AB6" t="n">
-        <v>946.078205683662</v>
+        <v>1119.637952191464</v>
       </c>
       <c r="AC6" t="n">
-        <v>855.7858295623139</v>
+        <v>1012.781277456045</v>
       </c>
       <c r="AD6" t="n">
-        <v>691454.2470948697</v>
+        <v>818302.7709553337</v>
       </c>
       <c r="AE6" t="n">
-        <v>946078.205683662</v>
+        <v>1119637.952191464</v>
       </c>
       <c r="AF6" t="n">
         <v>6.729788860946078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.80833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>855785.8295623139</v>
+        <v>1012781.277456045</v>
       </c>
     </row>
     <row r="7">
@@ -10327,28 +10327,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>656.4235081501229</v>
+        <v>773.4760426448919</v>
       </c>
       <c r="AB7" t="n">
-        <v>898.147603212329</v>
+        <v>1058.304044901438</v>
       </c>
       <c r="AC7" t="n">
-        <v>812.4296565198218</v>
+        <v>957.3009921950996</v>
       </c>
       <c r="AD7" t="n">
-        <v>656423.5081501228</v>
+        <v>773476.0426448919</v>
       </c>
       <c r="AE7" t="n">
-        <v>898147.6032123291</v>
+        <v>1058304.044901438</v>
       </c>
       <c r="AF7" t="n">
         <v>6.899764099605401e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.225</v>
       </c>
       <c r="AH7" t="n">
-        <v>812429.6565198218</v>
+        <v>957300.9921950996</v>
       </c>
     </row>
     <row r="8">
@@ -10433,28 +10433,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>653.4870621880128</v>
+        <v>770.5395966827821</v>
       </c>
       <c r="AB8" t="n">
-        <v>894.1298283001174</v>
+        <v>1054.286269989226</v>
       </c>
       <c r="AC8" t="n">
-        <v>808.7953324062491</v>
+        <v>953.6666680815268</v>
       </c>
       <c r="AD8" t="n">
-        <v>653487.0621880129</v>
+        <v>770539.5966827821</v>
       </c>
       <c r="AE8" t="n">
-        <v>894129.8283001174</v>
+        <v>1054286.269989226</v>
       </c>
       <c r="AF8" t="n">
         <v>6.920914864596946e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.15</v>
       </c>
       <c r="AH8" t="n">
-        <v>808795.3324062491</v>
+        <v>953666.6680815269</v>
       </c>
     </row>
     <row r="9">
@@ -10539,28 +10539,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>654.7943585501621</v>
+        <v>771.8468930449311</v>
       </c>
       <c r="AB9" t="n">
-        <v>895.9185288566551</v>
+        <v>1056.074970545764</v>
       </c>
       <c r="AC9" t="n">
-        <v>810.4133218921279</v>
+        <v>955.2846575674056</v>
       </c>
       <c r="AD9" t="n">
-        <v>654794.3585501621</v>
+        <v>771846.8930449311</v>
       </c>
       <c r="AE9" t="n">
-        <v>895918.5288566551</v>
+        <v>1056074.970545764</v>
       </c>
       <c r="AF9" t="n">
         <v>6.921299423960429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.15</v>
       </c>
       <c r="AH9" t="n">
-        <v>810413.3218921279</v>
+        <v>955284.6575674056</v>
       </c>
     </row>
   </sheetData>
@@ -10836,28 +10836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1155.80161047639</v>
+        <v>1336.608377433743</v>
       </c>
       <c r="AB2" t="n">
-        <v>1581.418753822131</v>
+        <v>1828.806549004778</v>
       </c>
       <c r="AC2" t="n">
-        <v>1430.490367492507</v>
+        <v>1654.267818713874</v>
       </c>
       <c r="AD2" t="n">
-        <v>1155801.61047639</v>
+        <v>1336608.377433743</v>
       </c>
       <c r="AE2" t="n">
-        <v>1581418.753822131</v>
+        <v>1828806.549004778</v>
       </c>
       <c r="AF2" t="n">
         <v>5.565471996213325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.89166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1430490.367492507</v>
+        <v>1654267.818713874</v>
       </c>
     </row>
     <row r="3">
@@ -10942,28 +10942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>670.2898121927255</v>
+        <v>803.4978692040488</v>
       </c>
       <c r="AB3" t="n">
-        <v>917.1200921415782</v>
+        <v>1099.381232469188</v>
       </c>
       <c r="AC3" t="n">
-        <v>829.5914377337189</v>
+        <v>994.4578306335784</v>
       </c>
       <c r="AD3" t="n">
-        <v>670289.8121927256</v>
+        <v>803497.8692040488</v>
       </c>
       <c r="AE3" t="n">
-        <v>917120.0921415782</v>
+        <v>1099381.232469188</v>
       </c>
       <c r="AF3" t="n">
         <v>7.736240985691655e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.82083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>829591.4377337189</v>
+        <v>994457.8306335784</v>
       </c>
     </row>
     <row r="4">
@@ -11048,28 +11048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>577.9446008289281</v>
+        <v>701.6329158510453</v>
       </c>
       <c r="AB4" t="n">
-        <v>790.7692999704325</v>
+        <v>960.0051093270343</v>
       </c>
       <c r="AC4" t="n">
-        <v>715.2993878329366</v>
+        <v>868.3835690684947</v>
       </c>
       <c r="AD4" t="n">
-        <v>577944.6008289281</v>
+        <v>701632.9158510453</v>
       </c>
       <c r="AE4" t="n">
-        <v>790769.2999704325</v>
+        <v>960005.1093270343</v>
       </c>
       <c r="AF4" t="n">
         <v>8.334065396000727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.96666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>715299.3878329366</v>
+        <v>868383.5690684947</v>
       </c>
     </row>
     <row r="5">
@@ -11154,28 +11154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>579.8605266588595</v>
+        <v>703.5488416809766</v>
       </c>
       <c r="AB5" t="n">
-        <v>793.3907542156268</v>
+        <v>962.6265635722286</v>
       </c>
       <c r="AC5" t="n">
-        <v>717.6706541642038</v>
+        <v>870.7548353997618</v>
       </c>
       <c r="AD5" t="n">
-        <v>579860.5266588595</v>
+        <v>703548.8416809766</v>
       </c>
       <c r="AE5" t="n">
-        <v>793390.7542156267</v>
+        <v>962626.5635722287</v>
       </c>
       <c r="AF5" t="n">
         <v>8.335024216225763e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.96666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>717670.6541642038</v>
+        <v>870754.8353997618</v>
       </c>
     </row>
     <row r="6">
@@ -11260,28 +11260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>580.9438638431971</v>
+        <v>704.6321788653142</v>
       </c>
       <c r="AB6" t="n">
-        <v>794.8730239447011</v>
+        <v>964.1088333013028</v>
       </c>
       <c r="AC6" t="n">
-        <v>719.0114581507137</v>
+        <v>872.0956393862718</v>
       </c>
       <c r="AD6" t="n">
-        <v>580943.863843197</v>
+        <v>704632.1788653142</v>
       </c>
       <c r="AE6" t="n">
-        <v>794873.0239447011</v>
+        <v>964108.8333013027</v>
       </c>
       <c r="AF6" t="n">
         <v>8.347009469038695e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.93333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>719011.4581507137</v>
+        <v>872095.6393862718</v>
       </c>
     </row>
   </sheetData>
@@ -11557,28 +11557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>818.2680618064678</v>
+        <v>968.6488302860361</v>
       </c>
       <c r="AB2" t="n">
-        <v>1119.590461602726</v>
+        <v>1325.348063367749</v>
       </c>
       <c r="AC2" t="n">
-        <v>1012.738319302443</v>
+        <v>1198.85870433762</v>
       </c>
       <c r="AD2" t="n">
-        <v>818268.0618064678</v>
+        <v>968648.830286036</v>
       </c>
       <c r="AE2" t="n">
-        <v>1119590.461602726</v>
+        <v>1325348.063367749</v>
       </c>
       <c r="AF2" t="n">
         <v>7.370055638395067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.82083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1012738.319302443</v>
+        <v>1198858.70433762</v>
       </c>
     </row>
     <row r="3">
@@ -11663,28 +11663,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>560.3473278570161</v>
+        <v>682.5252962306438</v>
       </c>
       <c r="AB3" t="n">
-        <v>766.6919347533702</v>
+        <v>933.8612211937173</v>
       </c>
       <c r="AC3" t="n">
-        <v>693.5199325593965</v>
+        <v>844.734816925444</v>
       </c>
       <c r="AD3" t="n">
-        <v>560347.3278570161</v>
+        <v>682525.2962306438</v>
       </c>
       <c r="AE3" t="n">
-        <v>766691.9347533702</v>
+        <v>933861.2211937172</v>
       </c>
       <c r="AF3" t="n">
         <v>9.163508526732329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>693519.9325593965</v>
+        <v>844734.8169254439</v>
       </c>
     </row>
     <row r="4">
@@ -11769,28 +11769,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.5799940774017</v>
+        <v>683.7579624510294</v>
       </c>
       <c r="AB4" t="n">
-        <v>768.3785230574973</v>
+        <v>935.5478094978444</v>
       </c>
       <c r="AC4" t="n">
-        <v>695.0455552429192</v>
+        <v>846.2604396089667</v>
       </c>
       <c r="AD4" t="n">
-        <v>561579.9940774017</v>
+        <v>683757.9624510293</v>
       </c>
       <c r="AE4" t="n">
-        <v>768378.5230574973</v>
+        <v>935547.8094978443</v>
       </c>
       <c r="AF4" t="n">
         <v>9.176591465735396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>695045.5552429192</v>
+        <v>846260.4396089667</v>
       </c>
     </row>
     <row r="5">
@@ -11875,28 +11875,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>562.8025685218996</v>
+        <v>684.9805368955273</v>
       </c>
       <c r="AB5" t="n">
-        <v>770.0513033486372</v>
+        <v>937.2205897889843</v>
       </c>
       <c r="AC5" t="n">
-        <v>696.5586877308347</v>
+        <v>847.7735720968822</v>
       </c>
       <c r="AD5" t="n">
-        <v>562802.5685218996</v>
+        <v>684980.5368955273</v>
       </c>
       <c r="AE5" t="n">
-        <v>770051.3033486373</v>
+        <v>937220.5897889843</v>
       </c>
       <c r="AF5" t="n">
         <v>9.189129282280004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.71666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>696558.6877308347</v>
+        <v>847773.5720968822</v>
       </c>
     </row>
   </sheetData>
@@ -21329,28 +21329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>626.4768835041828</v>
+        <v>756.760427351315</v>
       </c>
       <c r="AB2" t="n">
-        <v>857.1733102199169</v>
+        <v>1035.433002615865</v>
       </c>
       <c r="AC2" t="n">
-        <v>775.365892542824</v>
+        <v>936.6127300855527</v>
       </c>
       <c r="AD2" t="n">
-        <v>626476.8835041828</v>
+        <v>756760.427351315</v>
       </c>
       <c r="AE2" t="n">
-        <v>857173.3102199169</v>
+        <v>1035433.002615865</v>
       </c>
       <c r="AF2" t="n">
         <v>9.212934991131198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>775365.892542824</v>
+        <v>936612.7300855527</v>
       </c>
     </row>
     <row r="3">
@@ -21435,28 +21435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>552.6483414186326</v>
+        <v>682.8635544282033</v>
       </c>
       <c r="AB3" t="n">
-        <v>756.157841853064</v>
+        <v>934.3240409825167</v>
       </c>
       <c r="AC3" t="n">
-        <v>683.9911987008034</v>
+        <v>845.1534658431721</v>
       </c>
       <c r="AD3" t="n">
-        <v>552648.3414186327</v>
+        <v>682863.5544282033</v>
       </c>
       <c r="AE3" t="n">
-        <v>756157.841853064</v>
+        <v>934324.0409825167</v>
       </c>
       <c r="AF3" t="n">
         <v>9.904104079109609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.75416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>683991.1987008033</v>
+        <v>845153.465843172</v>
       </c>
     </row>
     <row r="4">
@@ -21541,28 +21541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.1195144082272</v>
+        <v>685.3347274177978</v>
       </c>
       <c r="AB4" t="n">
-        <v>759.5390097578852</v>
+        <v>937.7052088873379</v>
       </c>
       <c r="AC4" t="n">
-        <v>687.0496726862874</v>
+        <v>848.211939828656</v>
       </c>
       <c r="AD4" t="n">
-        <v>555119.5144082273</v>
+        <v>685334.7274177978</v>
       </c>
       <c r="AE4" t="n">
-        <v>759539.0097578852</v>
+        <v>937705.2088873379</v>
       </c>
       <c r="AF4" t="n">
         <v>9.904716274935986e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.75416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>687049.6726862874</v>
+        <v>848211.939828656</v>
       </c>
     </row>
   </sheetData>
@@ -21838,28 +21838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>583.3803830515133</v>
+        <v>720.078795026643</v>
       </c>
       <c r="AB2" t="n">
-        <v>798.2067770171603</v>
+        <v>985.243574989843</v>
       </c>
       <c r="AC2" t="n">
-        <v>722.0270425088895</v>
+        <v>891.213310990854</v>
       </c>
       <c r="AD2" t="n">
-        <v>583380.3830515132</v>
+        <v>720078.795026643</v>
       </c>
       <c r="AE2" t="n">
-        <v>798206.7770171603</v>
+        <v>985243.5749898429</v>
       </c>
       <c r="AF2" t="n">
         <v>1.123357334241879e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.03333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>722027.0425088895</v>
+        <v>891213.3109908539</v>
       </c>
     </row>
     <row r="3">
@@ -21944,19 +21944,19 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>577.5296038798798</v>
+        <v>723.3447202773414</v>
       </c>
       <c r="AB3" t="n">
-        <v>790.2014828363717</v>
+        <v>989.7121580003019</v>
       </c>
       <c r="AC3" t="n">
-        <v>714.7857623692144</v>
+        <v>895.2554187104903</v>
       </c>
       <c r="AD3" t="n">
-        <v>577529.6038798798</v>
+        <v>723344.7202773413</v>
       </c>
       <c r="AE3" t="n">
-        <v>790201.4828363718</v>
+        <v>989712.1580003019</v>
       </c>
       <c r="AF3" t="n">
         <v>1.124571862136763e-05</v>
@@ -21965,7 +21965,7 @@
         <v>30</v>
       </c>
       <c r="AH3" t="n">
-        <v>714785.7623692143</v>
+        <v>895255.4187104903</v>
       </c>
     </row>
   </sheetData>
@@ -22241,28 +22241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1598.983808098013</v>
+        <v>1810.56505148923</v>
       </c>
       <c r="AB2" t="n">
-        <v>2187.800188426697</v>
+        <v>2477.294979940235</v>
       </c>
       <c r="AC2" t="n">
-        <v>1978.999609040102</v>
+        <v>2240.865423960081</v>
       </c>
       <c r="AD2" t="n">
-        <v>1598983.808098013</v>
+        <v>1810565.05148923</v>
       </c>
       <c r="AE2" t="n">
-        <v>2187800.188426697</v>
+        <v>2477294.979940235</v>
       </c>
       <c r="AF2" t="n">
         <v>4.326656513739059e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1978999.609040102</v>
+        <v>2240865.42396008</v>
       </c>
     </row>
     <row r="3">
@@ -22347,28 +22347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>817.6140363134962</v>
+        <v>952.3001290045368</v>
       </c>
       <c r="AB3" t="n">
-        <v>1118.695595069674</v>
+        <v>1302.979049020605</v>
       </c>
       <c r="AC3" t="n">
-        <v>1011.928857575352</v>
+        <v>1178.624557324658</v>
       </c>
       <c r="AD3" t="n">
-        <v>817614.0363134962</v>
+        <v>952300.1290045368</v>
       </c>
       <c r="AE3" t="n">
-        <v>1118695.595069674</v>
+        <v>1302979.049020605</v>
       </c>
       <c r="AF3" t="n">
         <v>6.557187789747292e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.6375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1011928.857575352</v>
+        <v>1178624.557324658</v>
       </c>
     </row>
     <row r="4">
@@ -22453,28 +22453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.3765363431123</v>
+        <v>792.408028423155</v>
       </c>
       <c r="AB4" t="n">
-        <v>913.1340195994777</v>
+        <v>1084.207623063523</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.9857903605485</v>
+        <v>980.7323692132957</v>
       </c>
       <c r="AD4" t="n">
-        <v>667376.5363431124</v>
+        <v>792408.028423155</v>
       </c>
       <c r="AE4" t="n">
-        <v>913134.0195994778</v>
+        <v>1084207.623063523</v>
       </c>
       <c r="AF4" t="n">
         <v>7.355359570456167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>825985.7903605485</v>
+        <v>980732.3692132956</v>
       </c>
     </row>
     <row r="5">
@@ -22559,28 +22559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>604.3906142769212</v>
+        <v>719.7343513570423</v>
       </c>
       <c r="AB5" t="n">
-        <v>826.9539022857472</v>
+        <v>984.772291965313</v>
       </c>
       <c r="AC5" t="n">
-        <v>748.0305824886862</v>
+        <v>890.7870065567353</v>
       </c>
       <c r="AD5" t="n">
-        <v>604390.6142769211</v>
+        <v>719734.3513570423</v>
       </c>
       <c r="AE5" t="n">
-        <v>826953.9022857472</v>
+        <v>984772.291965313</v>
       </c>
       <c r="AF5" t="n">
         <v>7.712470759536267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>748030.5824886862</v>
+        <v>890787.0065567353</v>
       </c>
     </row>
     <row r="6">
@@ -22665,28 +22665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>605.7123415642059</v>
+        <v>721.056078644327</v>
       </c>
       <c r="AB6" t="n">
-        <v>828.7623478707027</v>
+        <v>986.5807375502684</v>
       </c>
       <c r="AC6" t="n">
-        <v>749.666432565183</v>
+        <v>892.422856633232</v>
       </c>
       <c r="AD6" t="n">
-        <v>605712.3415642058</v>
+        <v>721056.078644327</v>
       </c>
       <c r="AE6" t="n">
-        <v>828762.3478707027</v>
+        <v>986580.7375502684</v>
       </c>
       <c r="AF6" t="n">
         <v>7.713775672529253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.49583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>749666.4325651829</v>
+        <v>892422.856633232</v>
       </c>
     </row>
     <row r="7">
@@ -22771,28 +22771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>606.2478953656405</v>
+        <v>721.5916324457615</v>
       </c>
       <c r="AB7" t="n">
-        <v>829.4951162087918</v>
+        <v>987.3135058883576</v>
       </c>
       <c r="AC7" t="n">
-        <v>750.3292665215316</v>
+        <v>893.0856905895806</v>
       </c>
       <c r="AD7" t="n">
-        <v>606247.8953656405</v>
+        <v>721591.6324457616</v>
       </c>
       <c r="AE7" t="n">
-        <v>829495.1162087918</v>
+        <v>987313.5058883575</v>
       </c>
       <c r="AF7" t="n">
         <v>7.725954860463774e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.45833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>750329.2665215316</v>
+        <v>893085.6905895806</v>
       </c>
     </row>
   </sheetData>
@@ -23068,28 +23068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2501.020793552982</v>
+        <v>2763.766020317635</v>
       </c>
       <c r="AB2" t="n">
-        <v>3422.006986989586</v>
+        <v>3781.506597750321</v>
       </c>
       <c r="AC2" t="n">
-        <v>3095.415442968141</v>
+        <v>3420.604915438731</v>
       </c>
       <c r="AD2" t="n">
-        <v>2501020.793552983</v>
+        <v>2763766.020317635</v>
       </c>
       <c r="AE2" t="n">
-        <v>3422006.986989586</v>
+        <v>3781506.597750321</v>
       </c>
       <c r="AF2" t="n">
         <v>3.12268958480435e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3095415.442968141</v>
+        <v>3420604.915438731</v>
       </c>
     </row>
     <row r="3">
@@ -23174,28 +23174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1033.628851733565</v>
+        <v>1179.606463820259</v>
       </c>
       <c r="AB3" t="n">
-        <v>1414.256595428482</v>
+        <v>1613.989604363224</v>
       </c>
       <c r="AC3" t="n">
-        <v>1279.281930882385</v>
+        <v>1459.952701771434</v>
       </c>
       <c r="AD3" t="n">
-        <v>1033628.851733565</v>
+        <v>1179606.463820259</v>
       </c>
       <c r="AE3" t="n">
-        <v>1414256.595428482</v>
+        <v>1613989.604363224</v>
       </c>
       <c r="AF3" t="n">
         <v>5.407814474175337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.28333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1279281.930882385</v>
+        <v>1459952.701771434</v>
       </c>
     </row>
     <row r="4">
@@ -23280,28 +23280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>819.8893550105942</v>
+        <v>946.3943095113686</v>
       </c>
       <c r="AB4" t="n">
-        <v>1121.80878649102</v>
+        <v>1294.898446243685</v>
       </c>
       <c r="AC4" t="n">
-        <v>1014.744930376837</v>
+        <v>1171.31515593557</v>
       </c>
       <c r="AD4" t="n">
-        <v>819889.3550105941</v>
+        <v>946394.3095113686</v>
       </c>
       <c r="AE4" t="n">
-        <v>1121808.78649102</v>
+        <v>1294898.446243685</v>
       </c>
       <c r="AF4" t="n">
         <v>6.243413977925375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1014744.930376837</v>
+        <v>1171315.15593557</v>
       </c>
     </row>
     <row r="5">
@@ -23386,28 +23386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>723.0891285987553</v>
+        <v>849.5257522619684</v>
       </c>
       <c r="AB5" t="n">
-        <v>989.3624461897515</v>
+        <v>1162.358612675921</v>
       </c>
       <c r="AC5" t="n">
-        <v>894.9390829043151</v>
+        <v>1051.424738062689</v>
       </c>
       <c r="AD5" t="n">
-        <v>723089.1285987553</v>
+        <v>849525.7522619683</v>
       </c>
       <c r="AE5" t="n">
-        <v>989362.4461897515</v>
+        <v>1162358.612675921</v>
       </c>
       <c r="AF5" t="n">
         <v>6.68400995332697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>894939.0829043151</v>
+        <v>1051424.738062689</v>
       </c>
     </row>
     <row r="6">
@@ -23492,28 +23492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>661.635884906943</v>
+        <v>778.3703451959771</v>
       </c>
       <c r="AB6" t="n">
-        <v>905.2794070448438</v>
+        <v>1065.000645573222</v>
       </c>
       <c r="AC6" t="n">
-        <v>818.880811004111</v>
+        <v>963.3584786975068</v>
       </c>
       <c r="AD6" t="n">
-        <v>661635.8849069431</v>
+        <v>778370.345195977</v>
       </c>
       <c r="AE6" t="n">
-        <v>905279.4070448438</v>
+        <v>1065000.645573222</v>
       </c>
       <c r="AF6" t="n">
         <v>6.969355785745845e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>818880.8110041111</v>
+        <v>963358.4786975068</v>
       </c>
     </row>
     <row r="7">
@@ -23598,28 +23598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>644.6118359334722</v>
+        <v>761.3462962225061</v>
       </c>
       <c r="AB7" t="n">
-        <v>881.9863521913067</v>
+        <v>1041.707590719685</v>
       </c>
       <c r="AC7" t="n">
-        <v>797.8108126137876</v>
+        <v>942.2884803071834</v>
       </c>
       <c r="AD7" t="n">
-        <v>644611.8359334723</v>
+        <v>761346.2962225061</v>
       </c>
       <c r="AE7" t="n">
-        <v>881986.3521913067</v>
+        <v>1041707.590719684</v>
       </c>
       <c r="AF7" t="n">
         <v>7.050714721435524e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.225</v>
       </c>
       <c r="AH7" t="n">
-        <v>797810.8126137876</v>
+        <v>942288.4803071833</v>
       </c>
     </row>
     <row r="8">
@@ -23704,28 +23704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>645.1531580302453</v>
+        <v>761.8876183192791</v>
       </c>
       <c r="AB8" t="n">
-        <v>882.7270129655569</v>
+        <v>1042.448251493935</v>
       </c>
       <c r="AC8" t="n">
-        <v>798.4807857632675</v>
+        <v>942.9584534566632</v>
       </c>
       <c r="AD8" t="n">
-        <v>645153.1580302453</v>
+        <v>761887.6183192792</v>
       </c>
       <c r="AE8" t="n">
-        <v>882727.0129655569</v>
+        <v>1042448.251493935</v>
       </c>
       <c r="AF8" t="n">
         <v>7.062898909872142e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.1875</v>
       </c>
       <c r="AH8" t="n">
-        <v>798480.7857632674</v>
+        <v>942958.4534566632</v>
       </c>
     </row>
   </sheetData>
@@ -24001,28 +24001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>626.9315214816239</v>
+        <v>789.4314045021118</v>
       </c>
       <c r="AB2" t="n">
-        <v>857.795365957864</v>
+        <v>1080.134874895372</v>
       </c>
       <c r="AC2" t="n">
-        <v>775.9285801542022</v>
+        <v>977.0483184141757</v>
       </c>
       <c r="AD2" t="n">
-        <v>626931.5214816239</v>
+        <v>789431.4045021118</v>
       </c>
       <c r="AE2" t="n">
-        <v>857795.365957864</v>
+        <v>1080134.874895372</v>
       </c>
       <c r="AF2" t="n">
         <v>1.14808039985757e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.60833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>775928.5801542022</v>
+        <v>977048.3184141757</v>
       </c>
     </row>
   </sheetData>
@@ -24298,28 +24298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>926.5192986007295</v>
+        <v>1086.91648158421</v>
       </c>
       <c r="AB2" t="n">
-        <v>1267.70457949215</v>
+        <v>1487.167081474447</v>
       </c>
       <c r="AC2" t="n">
-        <v>1146.716633659971</v>
+        <v>1345.233942470633</v>
       </c>
       <c r="AD2" t="n">
-        <v>926519.2986007294</v>
+        <v>1086916.48158421</v>
       </c>
       <c r="AE2" t="n">
-        <v>1267704.57949215</v>
+        <v>1487167.081474447</v>
       </c>
       <c r="AF2" t="n">
         <v>6.676168144742904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1146716.63365997</v>
+        <v>1345233.942470633</v>
       </c>
     </row>
     <row r="3">
@@ -24404,28 +24404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>578.5129822773843</v>
+        <v>701.2392190452923</v>
       </c>
       <c r="AB3" t="n">
-        <v>791.5469845434302</v>
+        <v>959.4664359887259</v>
       </c>
       <c r="AC3" t="n">
-        <v>716.0028512817747</v>
+        <v>867.8963059575618</v>
       </c>
       <c r="AD3" t="n">
-        <v>578512.9822773843</v>
+        <v>701239.2190452924</v>
       </c>
       <c r="AE3" t="n">
-        <v>791546.9845434302</v>
+        <v>959466.435988726</v>
       </c>
       <c r="AF3" t="n">
         <v>8.764842411314342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.7125</v>
       </c>
       <c r="AH3" t="n">
-        <v>716002.8512817747</v>
+        <v>867896.3059575618</v>
       </c>
     </row>
     <row r="4">
@@ -24510,28 +24510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>569.8777430397467</v>
+        <v>692.5024945811696</v>
       </c>
       <c r="AB4" t="n">
-        <v>779.7318692586261</v>
+        <v>947.5124641398327</v>
       </c>
       <c r="AC4" t="n">
-        <v>705.3153540171338</v>
+        <v>857.083204404422</v>
       </c>
       <c r="AD4" t="n">
-        <v>569877.7430397468</v>
+        <v>692502.4945811696</v>
       </c>
       <c r="AE4" t="n">
-        <v>779731.8692586261</v>
+        <v>947512.4641398326</v>
       </c>
       <c r="AF4" t="n">
         <v>8.867768619572467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.425</v>
       </c>
       <c r="AH4" t="n">
-        <v>705315.3540171338</v>
+        <v>857083.204404422</v>
       </c>
     </row>
     <row r="5">
@@ -24616,28 +24616,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>570.8847687368144</v>
+        <v>684.1347432552844</v>
       </c>
       <c r="AB5" t="n">
-        <v>781.1097262441923</v>
+        <v>936.0633376166219</v>
       </c>
       <c r="AC5" t="n">
-        <v>706.5617102658321</v>
+        <v>846.7267664476365</v>
       </c>
       <c r="AD5" t="n">
-        <v>570884.7687368144</v>
+        <v>684134.7432552844</v>
       </c>
       <c r="AE5" t="n">
-        <v>781109.7262441923</v>
+        <v>936063.3376166219</v>
       </c>
       <c r="AF5" t="n">
         <v>8.880244523603754e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.39166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>706561.710265832</v>
+        <v>846726.7664476364</v>
       </c>
     </row>
   </sheetData>
@@ -24913,28 +24913,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1288.592578030002</v>
+        <v>1479.623206174884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1763.109213953013</v>
+        <v>2024.485747057358</v>
       </c>
       <c r="AC2" t="n">
-        <v>1594.84054511266</v>
+        <v>1831.271668741795</v>
       </c>
       <c r="AD2" t="n">
-        <v>1288592.578030002</v>
+        <v>1479623.206174884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1763109.213953013</v>
+        <v>2024485.747057358</v>
       </c>
       <c r="AF2" t="n">
         <v>5.112000551447748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.72916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1594840.54511266</v>
+        <v>1831271.668741795</v>
       </c>
     </row>
     <row r="3">
@@ -25019,28 +25019,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>721.9561380369279</v>
+        <v>855.5897586793725</v>
       </c>
       <c r="AB3" t="n">
-        <v>987.8122385190431</v>
+        <v>1170.655653781295</v>
       </c>
       <c r="AC3" t="n">
-        <v>893.5368248779693</v>
+        <v>1058.929921209937</v>
       </c>
       <c r="AD3" t="n">
-        <v>721956.1380369279</v>
+        <v>855589.7586793725</v>
       </c>
       <c r="AE3" t="n">
-        <v>987812.2385190432</v>
+        <v>1170655.653781295</v>
       </c>
       <c r="AF3" t="n">
         <v>7.300940302244233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>893536.8248779692</v>
+        <v>1058929.921209937</v>
       </c>
     </row>
     <row r="4">
@@ -25125,28 +25125,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>592.9130058823191</v>
+        <v>717.058998383346</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.2497321239073</v>
+        <v>981.1117559984588</v>
       </c>
       <c r="AC4" t="n">
-        <v>733.8251962861509</v>
+        <v>887.475827004963</v>
       </c>
       <c r="AD4" t="n">
-        <v>592913.0058823191</v>
+        <v>717058.998383346</v>
       </c>
       <c r="AE4" t="n">
-        <v>811249.7321239073</v>
+        <v>981111.7559984587</v>
       </c>
       <c r="AF4" t="n">
         <v>8.058668018897617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.93333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>733825.196286151</v>
+        <v>887475.827004963</v>
       </c>
     </row>
     <row r="5">
@@ -25231,28 +25231,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>588.5062315481905</v>
+        <v>712.6522240492174</v>
       </c>
       <c r="AB5" t="n">
-        <v>805.2201890667898</v>
+        <v>975.0822129413414</v>
       </c>
       <c r="AC5" t="n">
-        <v>728.371104355888</v>
+        <v>882.0217350747</v>
       </c>
       <c r="AD5" t="n">
-        <v>588506.2315481905</v>
+        <v>712652.2240492173</v>
       </c>
       <c r="AE5" t="n">
-        <v>805220.1890667898</v>
+        <v>975082.2129413413</v>
       </c>
       <c r="AF5" t="n">
         <v>8.105418476675255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.79583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>728371.104355888</v>
+        <v>882021.7350747</v>
       </c>
     </row>
     <row r="6">
@@ -25337,28 +25337,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>589.2735368314006</v>
+        <v>703.9329122208669</v>
       </c>
       <c r="AB6" t="n">
-        <v>806.270050006398</v>
+        <v>963.1520658289029</v>
       </c>
       <c r="AC6" t="n">
-        <v>729.320768040909</v>
+        <v>871.2301844586062</v>
       </c>
       <c r="AD6" t="n">
-        <v>589273.5368314006</v>
+        <v>703932.9122208669</v>
       </c>
       <c r="AE6" t="n">
-        <v>806270.050006398</v>
+        <v>963152.0658289029</v>
       </c>
       <c r="AF6" t="n">
         <v>8.117916123803929e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.75833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>729320.768040909</v>
+        <v>871230.1844586062</v>
       </c>
     </row>
   </sheetData>
